--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Vielliard/Jacques_Vielliard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Vielliard/Jacques_Vielliard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Marie Edme Vielliard est un ornithologue français né à Paris le 22 août 1944 et mort de la malaria le 9 août 2010 à Belém au Brésil[1],[2]. Il est le réalisateur d'une importante quantité d'enregistrements d'oiseaux.
-Il est notamment l'auteur de travaux sur le Bécasseau variable mais aussi le descripteur de la dernière espèce d'oiseaux décrite du Paléarctique, la Sittelle kabyle (Sitta ledanti)[2].
-L'amphibien Proceratophrys vielliardi est nommé en son honneur[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Marie Edme Vielliard est un ornithologue français né à Paris le 22 août 1944 et mort de la malaria le 9 août 2010 à Belém au Brésil,. Il est le réalisateur d'une importante quantité d'enregistrements d'oiseaux.
+Il est notamment l'auteur de travaux sur le Bécasseau variable mais aussi le descripteur de la dernière espèce d'oiseaux décrite du Paléarctique, la Sittelle kabyle (Sitta ledanti).
+L'amphibien Proceratophrys vielliardi est nommé en son honneur,.
 </t>
         </is>
       </c>
